--- a/results/pvalue_OFFSIDES_rare_DGI_AUPR+AUROCperdrug.xlsx
+++ b/results/pvalue_OFFSIDES_rare_DGI_AUPR+AUROCperdrug.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>27.48</t>
+          <t>19.598</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>24.988</t>
+          <t>18.155</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12.466</t>
+          <t>8.075</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>25.999</t>
+          <t>16.789</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.087</t>
+          <t>0.945</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-2.258</t>
+          <t>-0.073</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
